--- a/application/file/전화번호_10개테스트.xlsx
+++ b/application/file/전화번호_10개테스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\헬라\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{146C697A-53E8-442F-BA97-88A590EFE966}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC4D6F-BFB0-471B-8718-E5CAE949ED23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37350" yWindow="3210" windowWidth="19065" windowHeight="11385" xr2:uid="{2151C265-3869-4205-B899-DE065B21102A}"/>
+    <workbookView xWindow="37695" yWindow="3555" windowWidth="19065" windowHeight="11385" xr2:uid="{2151C265-3869-4205-B899-DE065B21102A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,38 @@
   <si>
     <t>전화번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1111-1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1111-1112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1111-1113</t>
+  </si>
+  <si>
+    <t>010-1111-1114</t>
+  </si>
+  <si>
+    <t>010-1111-1115</t>
+  </si>
+  <si>
+    <t>010-1111-1116</t>
+  </si>
+  <si>
+    <t>010-1111-1117</t>
+  </si>
+  <si>
+    <t>010-1111-1118</t>
+  </si>
+  <si>
+    <t>010-1111-1119</t>
+  </si>
+  <si>
+    <t>010-1111-1120</t>
   </si>
 </sst>
 </file>
@@ -84,8 +116,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,19 +440,19 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -425,80 +460,80 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1011111111</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1011111112</v>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1011111113</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1011111114</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1011111115</v>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1011111116</v>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1011111117</v>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1011111118</v>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1011111119</v>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1011111120</v>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
